--- a/trunk/Docs/JobFinder_Specs.xlsx
+++ b/trunk/Docs/JobFinder_Specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="JobSeeker" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="191">
   <si>
     <t>Login Information</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Nationality</t>
   </si>
   <si>
-    <t>Local Vietnamese/ Overseas Vietnamese/ Foreigner</t>
-  </si>
-  <si>
     <t>3/ Contact information</t>
   </si>
   <si>
@@ -609,6 +606,15 @@
   </si>
   <si>
     <t>Company Size (numbers of employees)</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Vietnamese/ Overseas Vietnamese/ Foreigner </t>
+  </si>
+  <si>
+    <t>vv</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1156,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1171,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -1177,10 +1183,10 @@
       </c>
       <c r="B2" s="8"/>
       <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1189,10 +1195,10 @@
       </c>
       <c r="B3" s="8"/>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1242,18 +1248,27 @@
         <v>4</v>
       </c>
       <c r="B11" s="8"/>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="8"/>
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
@@ -1271,25 +1286,25 @@
       </c>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
@@ -1297,472 +1312,523 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="B40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="B49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="B50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="14" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="B56" s="8"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="B63" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="B65" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="8" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="B67" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="8"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="B70" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="8" t="s">
+      <c r="B77" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="B78" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="8" t="s">
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="8"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="8" t="s">
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="8"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="8"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B88" s="8"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B89" s="8"/>
     </row>
-    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1776,19 +1842,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -1796,7 +1862,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -1826,37 +1892,37 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="8"/>
     </row>
@@ -1868,43 +1934,43 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="8"/>
     </row>
@@ -1923,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1935,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -1943,532 +2009,532 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>126</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="8"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B63" s="8"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" s="8"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" s="8"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B72" s="8"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B73" s="8"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B74" s="8"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
